--- a/PCB/SourcingSpecialParts.xlsx
+++ b/PCB/SourcingSpecialParts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="113">
   <si>
     <t>Hersteller-Teilenummer</t>
   </si>
@@ -329,26 +329,48 @@
     <t>U$3, U$4</t>
   </si>
   <si>
-    <t>579-MCP111-270E/TO</t>
-  </si>
-  <si>
-    <t>MCP111-270E/TO</t>
-  </si>
-  <si>
     <t>Supervisory Circuits Open Drain</t>
   </si>
   <si>
     <t>Q2, Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">579-MCP111T-270E/TT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP111T-270E/TT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">428-200123-ML02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS1V-T1K-32.768kHz-6pF-20PPM-TA-QC-Au </t>
+  </si>
+  <si>
+    <t>Quarze 32.768 kHz 6.0 pF +/-20 PPM -40/+85C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro Crystal </t>
+  </si>
+  <si>
+    <t>Y1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -415,24 +437,26 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -737,17 +761,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="77" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="257" width="9.140625" style="4" customWidth="1"/>
@@ -1123,17 +1147,17 @@
       <c r="A4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>104</v>
+      <c r="B4" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,7 +1298,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>77</v>
@@ -1355,6 +1379,23 @@
       </c>
       <c r="E17" s="4" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1371,13 +1412,13 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1521,7 +1562,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
